--- a/Databases/MobiedockDataFiles/Excel Tables:Other Docs/Vehicle.xlsx
+++ b/Databases/MobiedockDataFiles/Excel Tables:Other Docs/Vehicle.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nico/Desktop/solar-scooter-project/Databases/MobiedockDataFiles/Excel Tables:Other Docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bendavis/Documents/solar-scooter-project/Databases/MobiedockDataFiles/Excel Tables:Other Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E42300EE-CFBF-3740-8F6C-5FF4AA243053}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1CE0FDDF-D7D2-AA47-8649-0F977ECDEC68}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="580" windowWidth="25440" windowHeight="15000" xr2:uid="{ED509751-60AF-214E-AAA0-32DC471AF142}"/>
   </bookViews>
@@ -25,22 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="28">
-  <si>
-    <t>vehicle_id</t>
-  </si>
-  <si>
-    <t>vehicle_type</t>
-  </si>
-  <si>
-    <t>cost</t>
-  </si>
-  <si>
-    <t>location_id</t>
-  </si>
-  <si>
-    <t>in_use</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="23">
   <si>
     <t>scooter</t>
   </si>
@@ -460,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{598B7491-5A89-7A4E-B086-ADB763A1D7F2}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -476,273 +461,256 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
+        <v>18</v>
+      </c>
+      <c r="E1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C7">
         <v>2.5</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C8">
         <v>2.5</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C9">
         <v>2.5</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C10">
         <v>2.5</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C11">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C12">
         <v>0.5</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
         <v>17</v>
-      </c>
-      <c r="B13" t="s">
-        <v>22</v>
       </c>
       <c r="C13">
         <v>0.5</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C14">
         <v>0.5</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C15">
         <v>0.5</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16">
-        <v>0.5</v>
-      </c>
-      <c r="D16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" t="b">
         <v>1</v>
       </c>
     </row>
